--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.03173841966291</v>
+        <v>3.588675333333333</v>
       </c>
       <c r="H2">
-        <v>2.03173841966291</v>
+        <v>10.766026</v>
       </c>
       <c r="I2">
-        <v>0.07374991881065095</v>
+        <v>0.1217029912931362</v>
       </c>
       <c r="J2">
-        <v>0.07374991881065095</v>
+        <v>0.1217029912931362</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N2">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q2">
-        <v>14.38280765818626</v>
+        <v>84.82120407002421</v>
       </c>
       <c r="R2">
-        <v>14.38280765818626</v>
+        <v>763.390836630218</v>
       </c>
       <c r="S2">
-        <v>0.00163558900195841</v>
+        <v>0.008309691103981474</v>
       </c>
       <c r="T2">
-        <v>0.00163558900195841</v>
+        <v>0.008309691103981474</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.03173841966291</v>
+        <v>3.588675333333333</v>
       </c>
       <c r="H3">
-        <v>2.03173841966291</v>
+        <v>10.766026</v>
       </c>
       <c r="I3">
-        <v>0.07374991881065095</v>
+        <v>0.1217029912931362</v>
       </c>
       <c r="J3">
-        <v>0.07374991881065095</v>
+        <v>0.1217029912931362</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N3">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P3">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q3">
-        <v>367.5699938650453</v>
+        <v>650.5851781976138</v>
       </c>
       <c r="R3">
-        <v>367.5699938650453</v>
+        <v>5855.266603778525</v>
       </c>
       <c r="S3">
-        <v>0.0417994492941305</v>
+        <v>0.06373597176465276</v>
       </c>
       <c r="T3">
-        <v>0.0417994492941305</v>
+        <v>0.06373597176465275</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.03173841966291</v>
+        <v>3.588675333333333</v>
       </c>
       <c r="H4">
-        <v>2.03173841966291</v>
+        <v>10.766026</v>
       </c>
       <c r="I4">
-        <v>0.07374991881065095</v>
+        <v>0.1217029912931362</v>
       </c>
       <c r="J4">
-        <v>0.07374991881065095</v>
+        <v>0.1217029912931362</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N4">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q4">
-        <v>205.5350687556238</v>
+        <v>398.7037901462904</v>
       </c>
       <c r="R4">
-        <v>205.5350687556238</v>
+        <v>3588.334111316614</v>
       </c>
       <c r="S4">
-        <v>0.02337310669534857</v>
+        <v>0.03905987157842264</v>
       </c>
       <c r="T4">
-        <v>0.02337310669534857</v>
+        <v>0.03905987157842264</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.03173841966291</v>
+        <v>3.588675333333333</v>
       </c>
       <c r="H5">
-        <v>2.03173841966291</v>
+        <v>10.766026</v>
       </c>
       <c r="I5">
-        <v>0.07374991881065095</v>
+        <v>0.1217029912931362</v>
       </c>
       <c r="J5">
-        <v>0.07374991881065095</v>
+        <v>0.1217029912931362</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N5">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q5">
-        <v>61.04357361710809</v>
+        <v>108.1735817272298</v>
       </c>
       <c r="R5">
-        <v>61.04357361710809</v>
+        <v>973.5622355450679</v>
       </c>
       <c r="S5">
-        <v>0.006941773819213482</v>
+        <v>0.01059745684607938</v>
       </c>
       <c r="T5">
-        <v>0.006941773819213482</v>
+        <v>0.01059745684607938</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.059725926855</v>
+        <v>18.16892433333334</v>
       </c>
       <c r="H6">
-        <v>18.059725926855</v>
+        <v>54.50677300000001</v>
       </c>
       <c r="I6">
-        <v>0.6555486217901726</v>
+        <v>0.6161639698655711</v>
       </c>
       <c r="J6">
-        <v>0.6555486217901726</v>
+        <v>0.6161639698655711</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N6">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q6">
-        <v>127.8459676952955</v>
+        <v>429.4370193636433</v>
       </c>
       <c r="R6">
-        <v>127.8459676952955</v>
+        <v>3864.93317427279</v>
       </c>
       <c r="S6">
-        <v>0.01453843113782726</v>
+        <v>0.04207071826733817</v>
       </c>
       <c r="T6">
-        <v>0.01453843113782726</v>
+        <v>0.04207071826733817</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.059725926855</v>
+        <v>18.16892433333334</v>
       </c>
       <c r="H7">
-        <v>18.059725926855</v>
+        <v>54.50677300000001</v>
       </c>
       <c r="I7">
-        <v>0.6555486217901726</v>
+        <v>0.6161639698655711</v>
       </c>
       <c r="J7">
-        <v>0.6555486217901726</v>
+        <v>0.6161639698655711</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N7">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P7">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q7">
-        <v>3267.257873304306</v>
+        <v>3293.815064647057</v>
       </c>
       <c r="R7">
-        <v>3267.257873304306</v>
+        <v>29644.33558182351</v>
       </c>
       <c r="S7">
-        <v>0.3715471395528929</v>
+        <v>0.3226856543826235</v>
       </c>
       <c r="T7">
-        <v>0.3715471395528929</v>
+        <v>0.3226856543826234</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.059725926855</v>
+        <v>18.16892433333334</v>
       </c>
       <c r="H8">
-        <v>18.059725926855</v>
+        <v>54.50677300000001</v>
       </c>
       <c r="I8">
-        <v>0.6555486217901726</v>
+        <v>0.6161639698655711</v>
       </c>
       <c r="J8">
-        <v>0.6555486217901726</v>
+        <v>0.6161639698655711</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N8">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q8">
-        <v>1826.961076367161</v>
+        <v>2018.577419722328</v>
       </c>
       <c r="R8">
-        <v>1826.961076367161</v>
+        <v>18167.19677750095</v>
       </c>
       <c r="S8">
-        <v>0.2077589796461929</v>
+        <v>0.1977542645293848</v>
       </c>
       <c r="T8">
-        <v>0.2077589796461929</v>
+        <v>0.1977542645293848</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.059725926855</v>
+        <v>18.16892433333334</v>
       </c>
       <c r="H9">
-        <v>18.059725926855</v>
+        <v>54.50677300000001</v>
       </c>
       <c r="I9">
-        <v>0.6555486217901726</v>
+        <v>0.6161639698655711</v>
       </c>
       <c r="J9">
-        <v>0.6555486217901726</v>
+        <v>0.6161639698655711</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N9">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q9">
-        <v>542.6044014581736</v>
+        <v>547.6666008240238</v>
       </c>
       <c r="R9">
-        <v>542.6044014581736</v>
+        <v>4928.999407416214</v>
       </c>
       <c r="S9">
-        <v>0.06170407145325961</v>
+        <v>0.05365333268622467</v>
       </c>
       <c r="T9">
-        <v>0.06170407145325961</v>
+        <v>0.05365333268622467</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.51543208270895</v>
+        <v>2.554717666666666</v>
       </c>
       <c r="H10">
-        <v>2.51543208270895</v>
+        <v>7.664153</v>
       </c>
       <c r="I10">
-        <v>0.09130747840279091</v>
+        <v>0.08663831443731085</v>
       </c>
       <c r="J10">
-        <v>0.09130747840279091</v>
+        <v>0.08663831443731086</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N10">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q10">
-        <v>17.80690637766068</v>
+        <v>60.3827898647921</v>
       </c>
       <c r="R10">
-        <v>17.80690637766068</v>
+        <v>543.4451087831289</v>
       </c>
       <c r="S10">
-        <v>0.002024971822078698</v>
+        <v>0.005915529463114143</v>
       </c>
       <c r="T10">
-        <v>0.002024971822078698</v>
+        <v>0.005915529463114144</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.51543208270895</v>
+        <v>2.554717666666666</v>
       </c>
       <c r="H11">
-        <v>2.51543208270895</v>
+        <v>7.664153</v>
       </c>
       <c r="I11">
-        <v>0.09130747840279091</v>
+        <v>0.08663831443731085</v>
       </c>
       <c r="J11">
-        <v>0.09130747840279091</v>
+        <v>0.08663831443731086</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N11">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P11">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q11">
-        <v>455.0769657457522</v>
+        <v>463.1406561008469</v>
       </c>
       <c r="R11">
-        <v>455.0769657457522</v>
+        <v>4168.265904907622</v>
       </c>
       <c r="S11">
-        <v>0.0517505968172155</v>
+        <v>0.04537256729716041</v>
       </c>
       <c r="T11">
-        <v>0.0517505968172155</v>
+        <v>0.04537256729716041</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.51543208270895</v>
+        <v>2.554717666666666</v>
       </c>
       <c r="H12">
-        <v>2.51543208270895</v>
+        <v>7.664153</v>
       </c>
       <c r="I12">
-        <v>0.09130747840279091</v>
+        <v>0.08663831443731085</v>
       </c>
       <c r="J12">
-        <v>0.09130747840279091</v>
+        <v>0.08663831443731086</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N12">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q12">
-        <v>254.4665696460395</v>
+        <v>283.8305284940852</v>
       </c>
       <c r="R12">
-        <v>254.4665696460395</v>
+        <v>2554.474756446767</v>
       </c>
       <c r="S12">
-        <v>0.02893751571809806</v>
+        <v>0.02780606622512174</v>
       </c>
       <c r="T12">
-        <v>0.02893751571809806</v>
+        <v>0.02780606622512175</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.51543208270895</v>
+        <v>2.554717666666666</v>
       </c>
       <c r="H13">
-        <v>2.51543208270895</v>
+        <v>7.664153</v>
       </c>
       <c r="I13">
-        <v>0.09130747840279091</v>
+        <v>0.08663831443731085</v>
       </c>
       <c r="J13">
-        <v>0.09130747840279091</v>
+        <v>0.08663831443731086</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N13">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q13">
-        <v>75.57614800883437</v>
+        <v>77.00695511189488</v>
       </c>
       <c r="R13">
-        <v>75.57614800883437</v>
+        <v>693.0625960070539</v>
       </c>
       <c r="S13">
-        <v>0.008594394045398678</v>
+        <v>0.007544151451914549</v>
       </c>
       <c r="T13">
-        <v>0.008594394045398678</v>
+        <v>0.00754415145191455</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.94212941959193</v>
+        <v>5.174840666666667</v>
       </c>
       <c r="H14">
-        <v>4.94212941959193</v>
+        <v>15.524522</v>
       </c>
       <c r="I14">
-        <v>0.1793939809963855</v>
+        <v>0.1754947244039818</v>
       </c>
       <c r="J14">
-        <v>0.1793939809963855</v>
+        <v>0.1754947244039818</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N14">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q14">
-        <v>34.98565375145475</v>
+        <v>122.3114869545718</v>
       </c>
       <c r="R14">
-        <v>34.98565375145475</v>
+        <v>1100.803382591146</v>
       </c>
       <c r="S14">
-        <v>0.003978510445395218</v>
+        <v>0.01198250704177797</v>
       </c>
       <c r="T14">
-        <v>0.003978510445395218</v>
+        <v>0.01198250704177797</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.94212941959193</v>
+        <v>5.174840666666667</v>
       </c>
       <c r="H15">
-        <v>4.94212941959193</v>
+        <v>15.524522</v>
       </c>
       <c r="I15">
-        <v>0.1793939809963855</v>
+        <v>0.1754947244039818</v>
       </c>
       <c r="J15">
-        <v>0.1793939809963855</v>
+        <v>0.1754947244039818</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N15">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P15">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q15">
-        <v>894.1005706537054</v>
+        <v>938.1385398663144</v>
       </c>
       <c r="R15">
-        <v>894.1005706537054</v>
+        <v>8443.246858796829</v>
       </c>
       <c r="S15">
-        <v>0.1016756320991052</v>
+        <v>0.09190675332306747</v>
       </c>
       <c r="T15">
-        <v>0.1016756320991052</v>
+        <v>0.09190675332306746</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.94212941959193</v>
+        <v>5.174840666666667</v>
       </c>
       <c r="H16">
-        <v>4.94212941959193</v>
+        <v>15.524522</v>
       </c>
       <c r="I16">
-        <v>0.1793939809963855</v>
+        <v>0.1754947244039818</v>
       </c>
       <c r="J16">
-        <v>0.1793939809963855</v>
+        <v>0.1754947244039818</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N16">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q16">
-        <v>499.9565397909583</v>
+        <v>574.9276252546176</v>
       </c>
       <c r="R16">
-        <v>499.9565397909583</v>
+        <v>5174.348627291558</v>
       </c>
       <c r="S16">
-        <v>0.05685422744799416</v>
+        <v>0.05632401738918307</v>
       </c>
       <c r="T16">
-        <v>0.05685422744799416</v>
+        <v>0.05632401738918307</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.94212941959193</v>
+        <v>5.174840666666667</v>
       </c>
       <c r="H17">
-        <v>4.94212941959193</v>
+        <v>15.524522</v>
       </c>
       <c r="I17">
-        <v>0.1793939809963855</v>
+        <v>0.1754947244039818</v>
       </c>
       <c r="J17">
-        <v>0.1793939809963855</v>
+        <v>0.1754947244039818</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N17">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q17">
-        <v>148.486260893855</v>
+        <v>155.9854257590662</v>
       </c>
       <c r="R17">
-        <v>148.486260893855</v>
+        <v>1403.868831831596</v>
       </c>
       <c r="S17">
-        <v>0.01688561100389092</v>
+        <v>0.01528144664995328</v>
       </c>
       <c r="T17">
-        <v>0.01688561100389092</v>
+        <v>0.01528144664995328</v>
       </c>
     </row>
   </sheetData>
